--- a/气泡图们.xlsx
+++ b/气泡图们.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研二上\数据新闻\数据新闻课题\素材制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snow\dmep\github\snowflakes176x.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
   </bookViews>
   <sheets>
-    <sheet name="原始数据" sheetId="1" r:id="rId1"/>
+    <sheet name="颜色选择" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
   <si>
     <t>整体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +152,194 @@
   </si>
   <si>
     <t>西藏</t>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A5B592</t>
+  </si>
+  <si>
+    <t>#F3A447</t>
+  </si>
+  <si>
+    <t>橘黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E7BC29</t>
+  </si>
+  <si>
+    <t>粉色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#D092A7</t>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9C85C0</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#809EC2</t>
+  </si>
+  <si>
+    <t>#C3CEB6</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5E6E4A</t>
+  </si>
+  <si>
+    <t>#F7C589</t>
+  </si>
+  <si>
+    <t>#DC7F0E</t>
+  </si>
+  <si>
+    <t>#FADAB4</t>
+  </si>
+  <si>
+    <t>特浅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DFE4D8</t>
+  </si>
+  <si>
+    <t>#F6E5B0</t>
+  </si>
+  <si>
+    <t>#EFD06B</t>
+  </si>
+  <si>
+    <t>#B89114</t>
+  </si>
+  <si>
+    <t>#E0B6C4</t>
+  </si>
+  <si>
+    <t>#EBD1DA</t>
+  </si>
+  <si>
+    <t>#A94969</t>
+  </si>
+  <si>
+    <t>#CBC0DE</t>
+  </si>
+  <si>
+    <t>#B7A7D1</t>
+  </si>
+  <si>
+    <t>#684D95</t>
+  </si>
+  <si>
+    <t>#A2B8D2</t>
+  </si>
+  <si>
+    <t>#496D99</t>
+  </si>
+  <si>
+    <t>#365172</t>
+  </si>
+  <si>
+    <t>更深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A5B592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F3A447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E7BC29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#D092A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9C85C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#809EC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#C3CEB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F7C589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EFD06B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E0B6C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B7A7D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DC7F0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B89114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A94969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#684D95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#365172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,10 +684,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="10" max="10" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/气泡图们.xlsx
+++ b/气泡图们.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
   <si>
     <t>整体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>#365172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A5B592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E7BC29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +695,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -708,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -730,7 +738,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
